--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1653232.079314488</v>
+        <v>1650975.057405404</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>249.4237682275164</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>201.330287938294</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>32.94454038126188</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>6.283679164003906</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>22.11041309544132</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>59.95327816222785</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>287.2841839626593</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>62.83647259524198</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>30.54110646053108</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534541</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>74.75769145492384</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250815</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1765,16 +1765,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>74.7576914549241</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>140.5010290442959</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>20.18624009875606</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>45.41839567467429</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>17.25588147840149</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>202.4425172951281</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734111903</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>209.5675193320707</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.60662835550697</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2716,16 +2716,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>151.6981626025677</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>202.4425172951285</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>98.08454170880384</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3004,19 +3004,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>209.5675193320705</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>177.9279755428454</v>
+        <v>32.83323659136506</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,7 +3424,7 @@
         <v>178.7757248935317</v>
       </c>
       <c r="C37" t="n">
-        <v>97.49661511718502</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345257</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706227</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164178</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>188.7127700430363</v>
       </c>
       <c r="T37" t="n">
         <v>218.4926939877636</v>
@@ -3487,10 +3487,10 @@
         <v>285.4667430481854</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006316</v>
+        <v>137.3672954345981</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>217.5283980636892</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124458</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
         <v>172.5738126575766</v>
@@ -3724,7 +3724,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704449</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
         <v>171.6095167335022</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.3772837912452</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
         <v>172.5738126575766</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T46" t="n">
         <v>172.5738126575766</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2310.5492509541</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>1941.586734013689</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1583.321035406938</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1197.532782808694</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>786.5468780190865</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>2697.149091018222</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4519,19 +4519,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,10 +4565,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2690.801940347511</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2690.801940347511</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2690.801940347511</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2690.801940347511</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>2338.033285077397</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.567526816317</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>1583.378275356799</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>490.0065396637069</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U7" t="n">
-        <v>200.8329293182748</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V7" t="n">
-        <v>200.8329293182748</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W7" t="n">
-        <v>200.8329293182748</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>76.27673242182033</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1882.054803223514</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C8" t="n">
-        <v>1513.092286283102</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.826587676352</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>769.0383350781076</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>358.0524302885</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>344.1290262270909</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2457.500418892754</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2457.500418892754</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2126.437531549183</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1773.668876279069</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>1773.668876279069</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.654643287636</v>
+        <v>1773.668876279069</v>
       </c>
     </row>
     <row r="9">
@@ -4887,10 +4887,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5021,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5042,25 +5042,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M11" t="n">
-        <v>2536.15366264131</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N11" t="n">
-        <v>3082.932479700092</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O11" t="n">
-        <v>3585.904950579429</v>
+        <v>3610.459375831136</v>
       </c>
       <c r="P11" t="n">
-        <v>4299.260038026375</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5112,28 +5112,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>171.0738540998324</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>171.0738540998324</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>171.0738540998324</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
         <v>95.56103444839442</v>
@@ -5203,10 +5203,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
         <v>1346.796070598116</v>
@@ -5221,7 +5221,7 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
         <v>1674.827124689058</v>
@@ -5230,19 +5230,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783404</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413798</v>
+        <v>619.8559841413802</v>
       </c>
       <c r="X13" t="n">
-        <v>391.8664332433625</v>
+        <v>391.8664332433628</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.0738540998324</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1741.136558882383</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2274.668463554307</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N14" t="n">
-        <v>3254.420735780954</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>481.696890485834</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C16" t="n">
-        <v>481.696890485834</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>481.696890485834</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>339.7766591279595</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208121</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838514</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>481.696890485834</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>481.696890485834</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L17" t="n">
-        <v>1460.488316778687</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M17" t="n">
-        <v>2439.038619608516</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N17" t="n">
-        <v>2985.817436667298</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O17" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>432.2000540015827</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736757</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736757</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736757</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736757</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5674,10 +5674,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1935.953324590808</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1714.186709160334</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1425.083842285978</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1170.399354080091</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W19" t="n">
-        <v>880.9821840431301</v>
+        <v>863.3959868301846</v>
       </c>
       <c r="X19" t="n">
-        <v>652.9926331451128</v>
+        <v>635.4064359321673</v>
       </c>
       <c r="Y19" t="n">
-        <v>432.2000540015827</v>
+        <v>414.6138567886371</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5759,16 +5759,16 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2016.310259422545</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2996.062531649191</v>
       </c>
       <c r="O20" t="n">
-        <v>3944.053400686433</v>
+        <v>3876.027181978646</v>
       </c>
       <c r="P20" t="n">
-        <v>4338.827767043611</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
         <v>4719.034655862919</v>
@@ -5777,25 +5777,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E22" t="n">
         <v>95.56103444839442</v>
@@ -5914,7 +5914,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5944,16 +5944,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208122</v>
+        <v>999.1036114208124</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838514</v>
+        <v>709.6864413838517</v>
       </c>
       <c r="X22" t="n">
-        <v>481.696890485834</v>
+        <v>481.6968904858344</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786342</v>
+        <v>260.9043113423042</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074201</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972667</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1069.293752345676</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2047.844055175505</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2985.817436667297</v>
+        <v>3008.107474639232</v>
       </c>
       <c r="O23" t="n">
-        <v>3865.782086996752</v>
+        <v>3888.072124968687</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6087,7 +6087,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549554</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6099,7 +6099,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>411.3871648742117</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
         <v>95.56103444839442</v>
@@ -6148,19 +6148,19 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
@@ -6172,25 +6172,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931531</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.7880996267</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>999.103611420813</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838523</v>
+        <v>709.6864413838518</v>
       </c>
       <c r="X25" t="n">
-        <v>481.696890485835</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>411.3871648742117</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6203,49 +6203,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1605.62090185774</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M26" t="n">
-        <v>2584.171204687568</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N26" t="n">
-        <v>3130.950021746351</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,52 +6279,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089887</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142067</v>
@@ -6333,19 +6333,19 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U27" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y27" t="n">
         <v>1138.808109517387</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.2704579839213</v>
+        <v>95.56103444839439</v>
       </c>
       <c r="C28" t="n">
-        <v>560.2704579839216</v>
+        <v>95.56103444839439</v>
       </c>
       <c r="D28" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839439</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6385,10 +6385,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6403,31 +6403,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1803.112998829382</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1803.112998829382</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1514.010131955026</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1259.325643749139</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>969.9084737121784</v>
+        <v>709.686441383852</v>
       </c>
       <c r="X28" t="n">
-        <v>741.9189228141611</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="Y28" t="n">
-        <v>741.9189228141611</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,28 +6461,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>379.6167698340348</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1034.340101969334</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M29" t="n">
-        <v>2016.310259422546</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N29" t="n">
-        <v>2985.817436667298</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494862</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763712</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6543,49 +6543,49 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>754.0053234933659</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>585.0691405654591</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>585.0691405654591</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1453.060509258584</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1453.060509258584</v>
+        <v>999.1036114208124</v>
       </c>
       <c r="W31" t="n">
-        <v>1163.643339221623</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X31" t="n">
-        <v>935.6537883236057</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>935.6537883236057</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6701,22 +6701,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>864.5728002389885</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L32" t="n">
-        <v>1729.091615892343</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>2707.641918722172</v>
+        <v>2368.748013620956</v>
       </c>
       <c r="N32" t="n">
-        <v>3254.420735780954</v>
+        <v>3348.500285847603</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.393206660291</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
         <v>4719.034655862919</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6777,13 +6777,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6795,22 +6795,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>410.7144041584436</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C34" t="n">
-        <v>241.7782212305366</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6859,7 +6859,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6871,7 +6871,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>1220.870226851287</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W34" t="n">
-        <v>1041.144999030231</v>
+        <v>876.1082687325172</v>
       </c>
       <c r="X34" t="n">
-        <v>813.1554481322135</v>
+        <v>648.1187178344999</v>
       </c>
       <c r="Y34" t="n">
-        <v>592.3628689886833</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6935,28 +6935,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176192</v>
+        <v>806.1613418786392</v>
       </c>
       <c r="L35" t="n">
-        <v>1650.184003770974</v>
+        <v>1670.680157531994</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.715908442898</v>
+        <v>2649.230460361822</v>
       </c>
       <c r="N35" t="n">
-        <v>2730.49472550168</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O35" t="n">
-        <v>3610.459375831135</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P35" t="n">
-        <v>4323.814463278081</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.070220408989</v>
@@ -7014,13 +7014,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>506.5013989153978</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>408.0199695040998</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>408.0199695040998</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>408.0199695040998</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>262.1969465399325</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7117,28 +7117,28 @@
         <v>1964.709007988875</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988875</v>
+        <v>1875.945475280146</v>
       </c>
       <c r="S37" t="n">
-        <v>1964.709007988875</v>
+        <v>1685.326515640716</v>
       </c>
       <c r="T37" t="n">
-        <v>1744.009317092144</v>
+        <v>1464.626824743985</v>
       </c>
       <c r="U37" t="n">
-        <v>1455.97337475153</v>
+        <v>1176.590882403371</v>
       </c>
       <c r="V37" t="n">
-        <v>1202.355811079387</v>
+        <v>922.9733187312272</v>
       </c>
       <c r="W37" t="n">
-        <v>914.0055655761688</v>
+        <v>634.6230732280096</v>
       </c>
       <c r="X37" t="n">
-        <v>687.0829392118945</v>
+        <v>495.8682293546782</v>
       </c>
       <c r="Y37" t="n">
-        <v>687.0829392118945</v>
+        <v>276.1425747448911</v>
       </c>
     </row>
     <row r="38">
@@ -7151,13 +7151,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
         <v>850.213983755162</v>
@@ -7172,46 +7172,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L38" t="n">
-        <v>1650.184003770974</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.715908442899</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N38" t="n">
-        <v>3163.468180669545</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O38" t="n">
-        <v>4043.432830999</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4438.207197356178</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4686.49355911186</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
         <v>794.200663232024</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215047</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416711</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774087</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430889</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932518</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160441</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819752</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7333,13 +7333,13 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490193</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499225</v>
+        <v>800.746804049922</v>
       </c>
       <c r="M40" t="n">
-        <v>1191.409234901878</v>
+        <v>1191.409234901877</v>
       </c>
       <c r="N40" t="n">
         <v>1579.322996860149</v>
@@ -7354,28 +7354,28 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S40" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V40" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036711</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7409,22 +7409,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M41" t="n">
-        <v>2016.310259422545</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N41" t="n">
-        <v>2812.369300656583</v>
+        <v>3507.942201196469</v>
       </c>
       <c r="O41" t="n">
-        <v>3692.333950986038</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P41" t="n">
         <v>4405.689038432984</v>
@@ -7491,10 +7491,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
         <v>463.8981507430893</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932522</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160444</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819754</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,7 +7570,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L43" t="n">
         <v>800.7468040499223</v>
@@ -7640,34 +7640,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176197</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196074</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M44" t="n">
-        <v>2337.214217867999</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N44" t="n">
-        <v>2883.993034926781</v>
+        <v>3163.468180669546</v>
       </c>
       <c r="O44" t="n">
-        <v>3763.957685256236</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
@@ -7731,46 +7731,46 @@
         <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D46" t="n">
         <v>564.3616113774093</v>
@@ -7831,7 +7831,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8690,28 +8690,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>192.1853085771353</v>
       </c>
       <c r="Q11" t="n">
-        <v>173.2204606877393</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>354.4836849406612</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>251.1867816683983</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8945,10 +8945,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L17" t="n">
-        <v>71.00061210864527</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,19 +9407,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>201.9664098701136</v>
       </c>
       <c r="Q20" t="n">
-        <v>133.253057640026</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9641,25 +9641,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>395.1460246798073</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>124.0833809162816</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-1.426747608945789e-12</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>48.50256772349326</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>295.4822118493983</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>96.13798426930811</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>426.9983436221918</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10349,25 +10349,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>248.8012738805275</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>14.45386895940771</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>189.7998007892656</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>82.70159106555784</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,25 +10826,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>219.3344627260169</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>32.86979469803877</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11066,16 +11066,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>347.9535560878022</v>
       </c>
       <c r="N41" t="n">
-        <v>251.7982062376321</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11306,16 +11306,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>91.87126778929985</v>
       </c>
       <c r="P44" t="n">
-        <v>102.8529310510272</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>71.67627119164533</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>92.48912964370373</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>5.932933602273323</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>169.5827852326859</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>241.1046026619167</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>162.5760987035358</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,13 +24133,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004736</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>16.14213605696673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>16.14213605696642</v>
       </c>
       <c r="Y25" t="n">
-        <v>148.9780249965878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,16 +24604,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24649,10 +24649,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>38.0708627288742</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>16.14213605696628</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>48.34942093776533</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>16.14213605696665</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>108.5950227937456</v>
+        <v>253.689761745226</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.69395069303727</v>
+        <v>166.1905658102223</v>
       </c>
       <c r="D37" t="n">
         <v>147.5592177298068</v>
@@ -25321,10 +25321,10 @@
         <v>145.3777073581636</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.3647927345257</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.9695529706227</v>
       </c>
       <c r="H37" t="n">
         <v>143.6987596259152</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164178</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430363</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>87.28610466603345</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>-2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>3.765876499528531e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>910789.5988852222</v>
+        <v>910789.5988852223</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>910789.5988852221</v>
+        <v>910789.5988852222</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>911469.5121043774</v>
+        <v>911469.5121043775</v>
       </c>
     </row>
     <row r="14">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="E2" t="n">
-        <v>496352.233608729</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="F2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="G2" t="n">
+        <v>496352.2336087289</v>
+      </c>
+      <c r="H2" t="n">
         <v>496352.2336087288</v>
       </c>
-      <c r="H2" t="n">
-        <v>496352.2336087289</v>
-      </c>
       <c r="I2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087287</v>
       </c>
       <c r="J2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087287</v>
       </c>
       <c r="K2" t="n">
-        <v>496352.2336087286</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="L2" t="n">
-        <v>496352.2336087287</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="M2" t="n">
         <v>496729.9631749265</v>
@@ -26375,7 +26375,7 @@
         <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.861652268021346e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925926</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696691</v>
+        <v>130487.3190696692</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414976</v>
+        <v>36735.10506414958</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>3.026689228136092e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
         <v>18148.49231918991</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="I4" t="n">
-        <v>18148.49231918991</v>
-      </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918995</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811458</v>
+        <v>18496.0529481146</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740895</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740898</v>
       </c>
     </row>
     <row r="5">
@@ -26479,10 +26479,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
@@ -26494,10 +26494,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>96472.31657955461</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-343024.537969905</v>
+        <v>-343024.5379699051</v>
       </c>
       <c r="C6" t="n">
-        <v>246943.3412446398</v>
+        <v>246943.3412446397</v>
       </c>
       <c r="D6" t="n">
-        <v>246943.3412446398</v>
+        <v>246943.3412446399</v>
       </c>
       <c r="E6" t="n">
-        <v>-345557.1909575813</v>
+        <v>-345624.3864478071</v>
       </c>
       <c r="F6" t="n">
-        <v>381820.2230358254</v>
+        <v>381753.0275455994</v>
       </c>
       <c r="G6" t="n">
-        <v>381820.2230358253</v>
+        <v>381753.0275455994</v>
       </c>
       <c r="H6" t="n">
-        <v>381820.2230358253</v>
+        <v>381753.0275455996</v>
       </c>
       <c r="I6" t="n">
-        <v>381820.223035825</v>
+        <v>381753.0275455993</v>
       </c>
       <c r="J6" t="n">
-        <v>205397.0038432326</v>
+        <v>205329.8083530063</v>
       </c>
       <c r="K6" t="n">
-        <v>381820.223035825</v>
+        <v>381753.0275455994</v>
       </c>
       <c r="L6" t="n">
-        <v>381820.2230358251</v>
+        <v>381753.0275455994</v>
       </c>
       <c r="M6" t="n">
-        <v>251274.2745775882</v>
+        <v>251208.5900056271</v>
       </c>
       <c r="N6" t="n">
-        <v>342477.6767895158</v>
+        <v>342477.6767895161</v>
       </c>
       <c r="O6" t="n">
-        <v>379212.7818536657</v>
+        <v>379212.7818536656</v>
       </c>
       <c r="P6" t="n">
         <v>379212.7818536652</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26756,7 +26756,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.327065335026682e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018701</v>
+        <v>45.91888133018698</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26978,28 +26978,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.327065335026682e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>39.06311083518733</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>164.3604017932786</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>17.25436541380077</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>349.7893012822187</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,25 +27664,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>168.1320336449676</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>157.721567086496</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>165.0818272958564</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>36.63858880169789</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>153.6118477624158</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>136.7057146380968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>83.36203824822857</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.361849161278823e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.235012506294879e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405554</v>
+        <v>1.056255288405563</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
   </sheetData>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,43 +32859,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33737,7 +33737,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138795</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34211,13 +34211,13 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837924</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34366,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,28 +35410,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>590.9472947965072</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.0147654914588</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>810.0737993329934</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>803.4886170813098</v>
       </c>
       <c r="O14" t="n">
         <v>508.0530008882191</v>
@@ -35665,10 +35665,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
         <v>347.6333793934838</v>
@@ -35817,7 +35817,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L17" t="n">
-        <v>526.5907265009774</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
@@ -35899,13 +35899,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36051,10 +36051,10 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>600.7283960894853</v>
       </c>
       <c r="Q20" t="n">
-        <v>384.0473624437454</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
@@ -36297,7 +36297,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923324</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230595</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>947.447860092719</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509648</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193721</v>
+        <v>522.8453671356534</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636244</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222489</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>504.0926821158254</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>834.403327679625</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509645</v>
@@ -36616,7 +36616,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36771,7 +36771,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>286.9249852380206</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>979.3001790351033</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>585.992560435928</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>522.5068698476267</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>526.991087344666</v>
       </c>
       <c r="L35" t="n">
         <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129113</v>
@@ -37321,13 +37321,13 @@
         <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>333.4958958692773</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340053</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147175</v>
+        <v>46.63467190147176</v>
       </c>
       <c r="K37" t="n">
         <v>207.1039148327251</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586036</v>
+        <v>320.8136274586037</v>
       </c>
       <c r="M37" t="n">
         <v>348.6896346818893</v>
@@ -37482,7 +37482,7 @@
         <v>236.0133264335159</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629918</v>
+        <v>79.45049382629919</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>727.3874636142359</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>92.48299324026355</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554004</v>
@@ -37786,16 +37786,16 @@
         <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>886.8746719180288</v>
       </c>
       <c r="N41" t="n">
-        <v>804.1000416505434</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037194</v>
@@ -37859,13 +37859,13 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004591</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
         <v>394.6085160120763</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>599.9242686775192</v>
       </c>
       <c r="P44" t="n">
-        <v>501.614917270399</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38187,7 +38187,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
